--- a/Exc2/FURPS.xlsx
+++ b/Exc2/FURPS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -100,6 +100,18 @@
     <t xml:space="preserve">F11</t>
   </si>
   <si>
+    <t xml:space="preserve">Менеджер по депозитным процессам обрабатывает заявки в бек-офисе, подтверждая условия депозита в АБС банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сотрудник отделения может подать заявку напрямую в АБС, если клиент сразу придет в отделение, чтобы открыть депозит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ускорить загрузку справочников интернет-банка.</t>
   </si>
   <si>
@@ -115,6 +127,12 @@
     <t xml:space="preserve">Сохранять оформление сайта в дизайне банка.</t>
   </si>
   <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отклик интерфейса должен занимать миллисекунды</t>
+  </si>
+  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
@@ -148,19 +166,13 @@
     <t xml:space="preserve">Отклик сайта на действия пользователя не более 5 мс.</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поддерживаемость (Supportability)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
+    <t xml:space="preserve">P2</t>
   </si>
   <si>
     <t xml:space="preserve">Ручное переключение на сайт резервного ЦОД при сбое.</t>
   </si>
   <si>
-    <t xml:space="preserve">S2</t>
+    <t xml:space="preserve">P3</t>
   </si>
   <si>
     <r>
@@ -193,6 +205,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поддерживаемость (Supportability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработана документация по эксплуатации сайтов и АБС.</t>
+  </si>
+  <si>
     <t xml:space="preserve">+R</t>
   </si>
   <si>
@@ -257,6 +281,12 @@
   </si>
   <si>
     <t xml:space="preserve">Исключить использование API АБС при записи заявки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ R 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовать платформы Java, .NET, PHP</t>
   </si>
 </sst>
 </file>
@@ -266,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -336,6 +366,11 @@
       <name val="times new roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="times new roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -412,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,6 +493,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,10 +581,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,16 +721,16 @@
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="8"/>
@@ -718,54 +757,54 @@
       <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="8"/>
@@ -774,107 +813,153 @@
       <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="62.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="45.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="5" t="s">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="62.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="40.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="5" t="s">
+    <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+      <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="5" t="s">
+      <c r="D32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="7" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="45.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+      <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="5" t="s">
+      <c r="D34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="40.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+      <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+      <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
